--- a/output/3Y_P26_KFSDIV.xlsx
+++ b/output/3Y_P26_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -3892,10 +3895,10 @@
         <v>217795.1051</v>
       </c>
       <c r="K20" s="1">
-        <v>158827.0523</v>
+        <v>158845.5589</v>
       </c>
       <c r="L20" s="1">
-        <v>13.5007</v>
+        <v>13.5022</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -3945,10 +3948,10 @@
         <v>218864.3405</v>
       </c>
       <c r="K21" s="1">
-        <v>168482.1042</v>
+        <v>168500.6108</v>
       </c>
       <c r="L21" s="1">
-        <v>13.5965</v>
+        <v>13.598</v>
       </c>
       <c r="M21" s="1">
         <v>1</v>
@@ -3998,10 +4001,10 @@
         <v>251430.2603</v>
       </c>
       <c r="K22" s="1">
-        <v>187450.0452</v>
+        <v>187468.5517</v>
       </c>
       <c r="L22" s="1">
-        <v>13.6983</v>
+        <v>13.6996</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -4051,10 +4054,10 @@
         <v>271055.883</v>
       </c>
       <c r="K23" s="1">
-        <v>185954.8198</v>
+        <v>185979.3007</v>
       </c>
       <c r="L23" s="1">
-        <v>13.6854</v>
+        <v>13.6872</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -4104,10 +4107,10 @@
         <v>284187.6338</v>
       </c>
       <c r="K24" s="1">
-        <v>186330.6979</v>
+        <v>186355.1788</v>
       </c>
       <c r="L24" s="1">
-        <v>13.6897</v>
+        <v>13.6915</v>
       </c>
       <c r="M24" s="1">
         <v>0.75</v>
@@ -4157,10 +4160,10 @@
         <v>312876.6222</v>
       </c>
       <c r="K25" s="1">
-        <v>193224.9658</v>
+        <v>193249.4467</v>
       </c>
       <c r="L25" s="1">
-        <v>13.7724</v>
+        <v>13.7741</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -4210,10 +4213,10 @@
         <v>319821.455</v>
       </c>
       <c r="K26" s="1">
-        <v>193697.7707</v>
+        <v>193722.2516</v>
       </c>
       <c r="L26" s="1">
-        <v>13.779</v>
+        <v>13.7808</v>
       </c>
       <c r="M26" s="1">
         <v>1</v>
@@ -4263,10 +4266,10 @@
         <v>335182.8571</v>
       </c>
       <c r="K27" s="1">
-        <v>206803.3991</v>
+        <v>206827.88</v>
       </c>
       <c r="L27" s="1">
-        <v>13.9432</v>
+        <v>13.9448</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -4316,10 +4319,10 @@
         <v>329058.6523</v>
       </c>
       <c r="K28" s="1">
-        <v>224110.5433</v>
+        <v>224135.0242</v>
       </c>
       <c r="L28" s="1">
-        <v>14.1083</v>
+        <v>14.1098</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -4369,10 +4372,10 @@
         <v>325776.6756</v>
       </c>
       <c r="K29" s="1">
-        <v>250270.067</v>
+        <v>250294.5479</v>
       </c>
       <c r="L29" s="1">
-        <v>14.2347</v>
+        <v>14.2361</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -4422,10 +4425,10 @@
         <v>304491.0122</v>
       </c>
       <c r="K30" s="1">
-        <v>273540.5114</v>
+        <v>273564.9923</v>
       </c>
       <c r="L30" s="1">
-        <v>14.2704</v>
+        <v>14.2717</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -4475,10 +4478,10 @@
         <v>341432.6501</v>
       </c>
       <c r="K31" s="1">
-        <v>314898.5353</v>
+        <v>314923.0162</v>
       </c>
       <c r="L31" s="1">
-        <v>14.0945</v>
+        <v>14.0956</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -4528,10 +4531,10 @@
         <v>364154.1814</v>
       </c>
       <c r="K32" s="1">
-        <v>306383.2919</v>
+        <v>306441.8026</v>
       </c>
       <c r="L32" s="1">
-        <v>14.1011</v>
+        <v>14.1038</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -4581,10 +4584,10 @@
         <v>348762.3883</v>
       </c>
       <c r="K33" s="1">
-        <v>303650.8501</v>
+        <v>303720.2713</v>
       </c>
       <c r="L33" s="1">
-        <v>14.098</v>
+        <v>14.1012</v>
       </c>
       <c r="M33" s="1">
         <v>0.4</v>
@@ -4634,10 +4637,10 @@
         <v>345627.6733</v>
       </c>
       <c r="K34" s="1">
-        <v>339184.5971</v>
+        <v>339254.0183</v>
       </c>
       <c r="L34" s="1">
-        <v>14.0061</v>
+        <v>14.009</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -4687,10 +4690,10 @@
         <v>344213.3535</v>
       </c>
       <c r="K35" s="1">
-        <v>370054.6477</v>
+        <v>370124.0688</v>
       </c>
       <c r="L35" s="1">
-        <v>13.8571</v>
+        <v>13.8597</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -4740,10 +4743,10 @@
         <v>361102.0253</v>
       </c>
       <c r="K36" s="1">
-        <v>391431.0083</v>
+        <v>391500.4295</v>
       </c>
       <c r="L36" s="1">
-        <v>13.7397</v>
+        <v>13.7421</v>
       </c>
       <c r="M36" s="1">
         <v>0.4</v>
@@ -4793,10 +4796,10 @@
         <v>401709.3493</v>
       </c>
       <c r="K37" s="1">
-        <v>394469.0321</v>
+        <v>394538.4533</v>
       </c>
       <c r="L37" s="1">
-        <v>13.7266</v>
+        <v>13.729</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -4846,10 +4849,10 @@
         <v>426209.5743</v>
       </c>
       <c r="K38" s="1">
-        <v>384064.0524</v>
+        <v>384175.0469</v>
       </c>
       <c r="L38" s="1">
-        <v>13.7493</v>
+        <v>13.7533</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -5932,10 +5935,10 @@
         <v>218867.6102</v>
       </c>
       <c r="K20" s="1">
-        <v>166025.9868</v>
+        <v>166043.3476</v>
       </c>
       <c r="L20" s="1">
-        <v>13.5223</v>
+        <v>13.5237</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -5985,10 +5988,10 @@
         <v>219521.4289</v>
       </c>
       <c r="K21" s="1">
-        <v>176607.2859</v>
+        <v>176624.6467</v>
       </c>
       <c r="L21" s="1">
-        <v>13.6215</v>
+        <v>13.6229</v>
       </c>
       <c r="M21" s="1">
         <v>1</v>
@@ -6038,10 +6041,10 @@
         <v>253160.5444</v>
       </c>
       <c r="K22" s="1">
-        <v>196986.5653</v>
+        <v>197003.9261</v>
       </c>
       <c r="L22" s="1">
-        <v>13.7234</v>
+        <v>13.7246</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -6091,10 +6094,10 @@
         <v>273283.0377</v>
       </c>
       <c r="K23" s="1">
-        <v>195979.7822</v>
+        <v>196001.1656</v>
       </c>
       <c r="L23" s="1">
-        <v>13.7152</v>
+        <v>13.7167</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -6144,10 +6147,10 @@
         <v>286582.4652</v>
       </c>
       <c r="K24" s="1">
-        <v>196965.4251</v>
+        <v>196986.8086</v>
       </c>
       <c r="L24" s="1">
-        <v>13.7258</v>
+        <v>13.7273</v>
       </c>
       <c r="M24" s="1">
         <v>0.75</v>
@@ -6197,10 +6200,10 @@
         <v>316309.2046</v>
       </c>
       <c r="K25" s="1">
-        <v>204853.2691</v>
+        <v>204874.6526</v>
       </c>
       <c r="L25" s="1">
-        <v>13.8142</v>
+        <v>13.8156</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -6250,10 +6253,10 @@
         <v>323069.1656</v>
       </c>
       <c r="K26" s="1">
-        <v>206001.3823</v>
+        <v>206022.7658</v>
       </c>
       <c r="L26" s="1">
-        <v>13.8291</v>
+        <v>13.8306</v>
       </c>
       <c r="M26" s="1">
         <v>1</v>
@@ -6303,10 +6306,10 @@
         <v>338728.2067</v>
       </c>
       <c r="K27" s="1">
-        <v>220566.612</v>
+        <v>220587.9955</v>
       </c>
       <c r="L27" s="1">
-        <v>13.9981</v>
+        <v>13.9995</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -6356,10 +6359,10 @@
         <v>331552.1041</v>
       </c>
       <c r="K28" s="1">
-        <v>239660.2462</v>
+        <v>239681.6297</v>
       </c>
       <c r="L28" s="1">
-        <v>14.1654</v>
+        <v>14.1666</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -6409,10 +6412,10 @@
         <v>327367.0628</v>
       </c>
       <c r="K29" s="1">
-        <v>268258.8656</v>
+        <v>268280.2491</v>
       </c>
       <c r="L29" s="1">
-        <v>14.2892</v>
+        <v>14.2903</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -6462,10 +6465,10 @@
         <v>303872.3672</v>
       </c>
       <c r="K30" s="1">
-        <v>293873.515</v>
+        <v>293894.8985</v>
       </c>
       <c r="L30" s="1">
-        <v>14.3213</v>
+        <v>14.3223</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -6515,10 +6518,10 @@
         <v>342761.2786</v>
       </c>
       <c r="K31" s="1">
-        <v>338944.7754</v>
+        <v>338966.1589</v>
       </c>
       <c r="L31" s="1">
-        <v>14.1353</v>
+        <v>14.1362</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -6568,10 +6571,10 @@
         <v>366449.6534</v>
       </c>
       <c r="K32" s="1">
-        <v>330632.7228</v>
+        <v>330687.324</v>
       </c>
       <c r="L32" s="1">
-        <v>14.1423</v>
+        <v>14.1447</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6621,10 +6624,10 @@
         <v>349058.12</v>
       </c>
       <c r="K33" s="1">
-        <v>328550.0328</v>
+        <v>328612.9501</v>
       </c>
       <c r="L33" s="1">
-        <v>14.1404</v>
+        <v>14.1431</v>
       </c>
       <c r="M33" s="1">
         <v>0.4</v>
@@ -6674,10 +6677,10 @@
         <v>344828.0818</v>
       </c>
       <c r="K34" s="1">
-        <v>367770.3183</v>
+        <v>367833.2356</v>
       </c>
       <c r="L34" s="1">
-        <v>14.0418</v>
+        <v>14.0442</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6727,10 +6730,10 @@
         <v>342567.2991</v>
       </c>
       <c r="K35" s="1">
-        <v>398950.056</v>
+        <v>399012.9733</v>
       </c>
       <c r="L35" s="1">
-        <v>13.8987</v>
+        <v>13.9009</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6780,10 +6783,10 @@
         <v>359758.4109</v>
       </c>
       <c r="K36" s="1">
-        <v>408950.056</v>
+        <v>409012.9733</v>
       </c>
       <c r="L36" s="1">
-        <v>13.8445</v>
+        <v>13.8467</v>
       </c>
       <c r="M36" s="1">
         <v>0.4</v>
@@ -6833,10 +6836,10 @@
         <v>401863.0201</v>
       </c>
       <c r="K37" s="1">
-        <v>418950.056</v>
+        <v>419012.9733</v>
       </c>
       <c r="L37" s="1">
-        <v>13.801</v>
+        <v>13.8031</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6886,10 +6889,10 @@
         <v>427698.4223</v>
       </c>
       <c r="K38" s="1">
-        <v>421090.5901</v>
+        <v>421153.5074</v>
       </c>
       <c r="L38" s="1">
-        <v>13.7963</v>
+        <v>13.7984</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -7972,10 +7975,10 @@
         <v>219950.1088</v>
       </c>
       <c r="K20" s="1">
-        <v>173664.4681</v>
+        <v>173680.5125</v>
       </c>
       <c r="L20" s="1">
-        <v>13.5466</v>
+        <v>13.5479</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -8025,10 +8028,10 @@
         <v>220164.0975</v>
       </c>
       <c r="K21" s="1">
-        <v>185254.3193</v>
+        <v>185270.3637</v>
       </c>
       <c r="L21" s="1">
-        <v>13.6491</v>
+        <v>13.6503</v>
       </c>
       <c r="M21" s="1">
         <v>1</v>
@@ -8078,10 +8081,10 @@
         <v>254941.057</v>
       </c>
       <c r="K22" s="1">
-        <v>207162.6093</v>
+        <v>207178.6536</v>
       </c>
       <c r="L22" s="1">
-        <v>13.7507</v>
+        <v>13.7518</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -8131,10 +8134,10 @@
         <v>275593.0434</v>
       </c>
       <c r="K23" s="1">
-        <v>206713.6224</v>
+        <v>206731.4608</v>
       </c>
       <c r="L23" s="1">
-        <v>13.7473</v>
+        <v>13.7485</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -8184,10 +8187,10 @@
         <v>289071.5968</v>
       </c>
       <c r="K24" s="1">
-        <v>208392.2583</v>
+        <v>208410.0966</v>
       </c>
       <c r="L24" s="1">
-        <v>13.7642</v>
+        <v>13.7654</v>
       </c>
       <c r="M24" s="1">
         <v>0.75</v>
@@ -8237,10 +8240,10 @@
         <v>319909.7336</v>
       </c>
       <c r="K25" s="1">
-        <v>217390.0769</v>
+        <v>217407.9152</v>
       </c>
       <c r="L25" s="1">
-        <v>13.8582</v>
+        <v>13.8593</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -8290,10 +8293,10 @@
         <v>326470.4798</v>
       </c>
       <c r="K26" s="1">
-        <v>219314.929</v>
+        <v>219332.7673</v>
       </c>
       <c r="L26" s="1">
-        <v>13.8815</v>
+        <v>13.8826</v>
       </c>
       <c r="M26" s="1">
         <v>1</v>
@@ -8343,10 +8346,10 @@
         <v>342448.057</v>
       </c>
       <c r="K27" s="1">
-        <v>235508.5227</v>
+        <v>235526.3611</v>
       </c>
       <c r="L27" s="1">
-        <v>14.0552</v>
+        <v>14.0563</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -8396,10 +8399,10 @@
         <v>334131.6674</v>
       </c>
       <c r="K28" s="1">
-        <v>256594.0575</v>
+        <v>256611.8958</v>
       </c>
       <c r="L28" s="1">
-        <v>14.2243</v>
+        <v>14.2253</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -8449,10 +8452,10 @@
         <v>328964.3141</v>
       </c>
       <c r="K29" s="1">
-        <v>287903.7994</v>
+        <v>287921.6378</v>
       </c>
       <c r="L29" s="1">
-        <v>14.3452</v>
+        <v>14.3461</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -8502,10 +8505,10 @@
         <v>303058.891</v>
       </c>
       <c r="K30" s="1">
-        <v>316140.9784</v>
+        <v>316158.8167</v>
       </c>
       <c r="L30" s="1">
-        <v>14.3733</v>
+        <v>14.3741</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -8555,10 +8558,10 @@
         <v>342790.1932</v>
       </c>
       <c r="K31" s="1">
-        <v>343701.5</v>
+        <v>343719.3384</v>
       </c>
       <c r="L31" s="1">
-        <v>14.2556</v>
+        <v>14.2564</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -8608,10 +8611,10 @@
         <v>367480.7518</v>
       </c>
       <c r="K32" s="1">
-        <v>358718.0203</v>
+        <v>358735.8587</v>
       </c>
       <c r="L32" s="1">
-        <v>14.2387</v>
+        <v>14.2394</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -8661,10 +8664,10 @@
         <v>347884.7817</v>
       </c>
       <c r="K33" s="1">
-        <v>357440.8401</v>
+        <v>357463.7782</v>
       </c>
       <c r="L33" s="1">
-        <v>14.238</v>
+        <v>14.2389</v>
       </c>
       <c r="M33" s="1">
         <v>0.4</v>
@@ -8714,10 +8717,10 @@
         <v>343621.9481</v>
       </c>
       <c r="K34" s="1">
-        <v>383594.1874</v>
+        <v>383617.1255</v>
       </c>
       <c r="L34" s="1">
-        <v>14.1673</v>
+        <v>14.1681</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -8767,10 +8770,10 @@
         <v>341449.3138</v>
       </c>
       <c r="K35" s="1">
-        <v>402631.8914</v>
+        <v>402654.8294</v>
       </c>
       <c r="L35" s="1">
-        <v>14.0729</v>
+        <v>14.0737</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -8820,10 +8823,10 @@
         <v>358617.4933</v>
       </c>
       <c r="K36" s="1">
-        <v>412631.8914</v>
+        <v>412654.8294</v>
       </c>
       <c r="L36" s="1">
-        <v>14.0136</v>
+        <v>14.0144</v>
       </c>
       <c r="M36" s="1">
         <v>0.4</v>
@@ -8873,10 +8876,10 @@
         <v>400621.9987</v>
       </c>
       <c r="K37" s="1">
-        <v>422631.8914</v>
+        <v>422654.8294</v>
       </c>
       <c r="L37" s="1">
-        <v>13.9654</v>
+        <v>13.9661</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -8926,10 +8929,10 @@
         <v>427075.5731</v>
       </c>
       <c r="K38" s="1">
-        <v>443232.1194</v>
+        <v>443255.0575</v>
       </c>
       <c r="L38" s="1">
-        <v>13.9141</v>
+        <v>13.9148</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -10994,13 +10997,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -11045,13 +11048,13 @@
         <v>13.9845</v>
       </c>
       <c r="D3" s="1">
-        <v>13.7493</v>
+        <v>13.7533</v>
       </c>
       <c r="E3" s="1">
-        <v>13.7963</v>
+        <v>13.7984</v>
       </c>
       <c r="F3" s="1">
-        <v>13.9141</v>
+        <v>13.9148</v>
       </c>
       <c r="G3" s="1">
         <v>14.0555</v>
@@ -11164,6 +11167,26 @@
       </c>
       <c r="G8" s="1">
         <v>86585.90429999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9587</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1094</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.0155</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9635</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9539</v>
       </c>
     </row>
   </sheetData>
